--- a/nuon/instagram_posts_ehee45.xlsx
+++ b/nuon/instagram_posts_ehee45.xlsx
@@ -1629,7 +1629,7 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>673</v>
       </c>
       <c r="E16">
         <v>9</v>
@@ -1723,7 +1723,7 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>748</v>
       </c>
       <c r="E18">
         <v>13</v>
@@ -1864,7 +1864,7 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>619</v>
       </c>
       <c r="E21">
         <v>5</v>
@@ -1911,7 +1911,7 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>378</v>
       </c>
       <c r="E22">
         <v>8</v>
@@ -1958,7 +1958,7 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>1047</v>
       </c>
       <c r="E23">
         <v>15</v>
@@ -2005,7 +2005,7 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>387</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -2099,7 +2099,7 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2193,7 +2193,7 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>999</v>
       </c>
       <c r="E28">
         <v>24</v>
@@ -2287,7 +2287,7 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>998</v>
       </c>
       <c r="E30">
         <v>39</v>
@@ -2334,7 +2334,7 @@
         <v>2</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="E31">
         <v>24</v>
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>424</v>
       </c>
       <c r="E33">
         <v>12</v>
@@ -2475,7 +2475,7 @@
         <v>2</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>1012</v>
       </c>
       <c r="E34">
         <v>27</v>
@@ -2522,7 +2522,7 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>513</v>
       </c>
       <c r="E35">
         <v>17</v>
@@ -2616,7 +2616,7 @@
         <v>2</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>829</v>
       </c>
       <c r="E37">
         <v>13</v>
@@ -2663,7 +2663,7 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>338</v>
       </c>
       <c r="E38">
         <v>12</v>
@@ -2710,7 +2710,7 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>848</v>
       </c>
       <c r="E39">
         <v>14</v>
@@ -2757,7 +2757,7 @@
         <v>2</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>643</v>
       </c>
       <c r="E40">
         <v>33</v>
@@ -2804,7 +2804,7 @@
         <v>2</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>645</v>
       </c>
       <c r="E41">
         <v>27</v>
@@ -2945,7 +2945,7 @@
         <v>2</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>930</v>
       </c>
       <c r="E44">
         <v>16</v>
@@ -2992,7 +2992,7 @@
         <v>2</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>1001</v>
       </c>
       <c r="E45">
         <v>11</v>
@@ -3086,7 +3086,7 @@
         <v>2</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>1019</v>
       </c>
       <c r="E47">
         <v>49</v>
@@ -3136,7 +3136,7 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>992</v>
       </c>
       <c r="E48">
         <v>66</v>
@@ -3183,7 +3183,7 @@
         <v>2</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>369</v>
       </c>
       <c r="E49">
         <v>6</v>
